--- a/OroLoma_December_Water.xlsx
+++ b/OroLoma_December_Water.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6496EF3A-2DB2-40A6-9878-BFE857FA090D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19105F9-5DBA-4ABF-880C-9FC84F25C857}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C8EBDA33-F5B2-4958-9BB6-A971455D8F1E}"/>
   </bookViews>
@@ -414,55 +414,55 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>192.85290581041409</c:v>
+                  <c:v>202.09108767041818</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>198.92360031894503</c:v>
+                  <c:v>208.16178217894912</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>189.40958830663143</c:v>
+                  <c:v>198.64777016663552</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>188.34963789792982</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92.15362238081525</c:v>
+                  <c:v>107.4508885420432</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84.998931193442473</c:v>
+                  <c:v>100.29619735467043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.365300542752841</c:v>
+                  <c:v>75.662566703980801</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.852961273504512</c:v>
+                  <c:v>68.150227434732471</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52.776392659847048</c:v>
+                  <c:v>62.014574519851145</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52.774496118388242</c:v>
+                  <c:v>62.01267797839234</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>188.03043486044382</c:v>
+                  <c:v>203.32770102167177</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>203.4741176192413</c:v>
+                  <c:v>218.77138378046925</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>87.976380745454065</c:v>
+                  <c:v>103.27364690668203</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>83.993491604947906</c:v>
+                  <c:v>99.290757766175858</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>118.74781426142451</c:v>
+                  <c:v>134.04508042265246</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>142.65666499414877</c:v>
+                  <c:v>151.89484685415286</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>129.93978248378903</c:v>
+                  <c:v>139.17796434379312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -803,55 +803,55 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>272.75078961368695</c:v>
+                  <c:v>281.98897147369104</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>256.72240936564435</c:v>
+                  <c:v>265.96059122564844</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>231.67970904650599</c:v>
+                  <c:v>240.91789090651008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>210.68234238306738</c:v>
+                  <c:v>225.97960854429533</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>212.85728186209334</c:v>
+                  <c:v>228.1545480233213</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>245.38289111836838</c:v>
+                  <c:v>260.6801572795963</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74.701862588140727</c:v>
+                  <c:v>89.99912874936868</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63.082573317423218</c:v>
+                  <c:v>78.379839478651178</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>66.314392023673463</c:v>
+                  <c:v>81.611658184901415</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45.24613629026895</c:v>
+                  <c:v>54.48431815027304</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>120.79011391660248</c:v>
+                  <c:v>130.02829577660657</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>275.32999323167735</c:v>
+                  <c:v>290.62725939290527</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>167.62222767356886</c:v>
+                  <c:v>182.91949383479681</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>142.61313866145213</c:v>
+                  <c:v>157.91040482268008</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>159.08172722421781</c:v>
+                  <c:v>174.37899338544577</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>154.0644973727893</c:v>
+                  <c:v>169.36176353401726</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>56.399126753808602</c:v>
+                  <c:v>65.637308613812692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2166,16 +2166,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>392430</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>354330</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>146685</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>41910</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2202,16 +2202,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>51435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>474345</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>140970</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>127635</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2540,7 +2540,7 @@
   <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2635,28 +2635,28 @@
         <v>0</v>
       </c>
       <c r="I2" s="8">
-        <v>8.4137376299816271</v>
+        <v>13.844075010378612</v>
       </c>
       <c r="J2" s="7">
-        <v>9.9947196053562237</v>
+        <v>13.254392876419303</v>
       </c>
       <c r="K2" s="7">
-        <v>192.85290581041409</v>
+        <v>202.09108767041818</v>
       </c>
       <c r="L2" s="7">
-        <v>1471.7471579518283</v>
+        <v>1529.3215463428355</v>
       </c>
       <c r="M2" s="7">
-        <v>10.040109705980601</v>
+        <v>11.191997304467945</v>
       </c>
       <c r="N2" s="7">
-        <v>0.64426361942443611</v>
+        <v>0.94786627086673481</v>
       </c>
       <c r="O2" s="7">
-        <v>79.741204178272923</v>
+        <v>81.635531981771734</v>
       </c>
       <c r="P2" s="7">
-        <v>5.2609054529127786E-2</v>
+        <v>0.26043869174730916</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2685,28 +2685,28 @@
         <v>0</v>
       </c>
       <c r="I3" s="8">
-        <v>8.4471170455067721</v>
+        <v>13.877454425903757</v>
       </c>
       <c r="J3" s="7">
-        <v>9.887153805759656</v>
+        <v>13.146827076822735</v>
       </c>
       <c r="K3" s="7">
-        <v>198.92360031894503</v>
+        <v>208.16178217894912</v>
       </c>
       <c r="L3" s="7">
-        <v>1561.4720204106854</v>
+        <v>1619.0464088016927</v>
       </c>
       <c r="M3" s="7">
-        <v>10.900153431641005</v>
+        <v>12.052041030128347</v>
       </c>
       <c r="N3" s="7">
-        <v>0.16426239503076245</v>
+        <v>0.46786504647306115</v>
       </c>
       <c r="O3" s="7">
-        <v>97.176849174916867</v>
+        <v>99.071176978415679</v>
       </c>
       <c r="P3" s="7">
-        <v>6.08553797153355E-3</v>
+        <v>0.21391517518971492</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -2735,28 +2735,28 @@
         <v>0</v>
       </c>
       <c r="I4" s="8">
-        <v>7.0024530234460709</v>
+        <v>12.432790403843056</v>
       </c>
       <c r="J4" s="7">
-        <v>9.7983819351054358</v>
+        <v>13.058055206168515</v>
       </c>
       <c r="K4" s="7">
-        <v>189.40958830663143</v>
+        <v>198.64777016663552</v>
       </c>
       <c r="L4" s="7">
-        <v>1486.5790661319613</v>
+        <v>1544.1534545229686</v>
       </c>
       <c r="M4" s="7">
-        <v>10.095638479544647</v>
+        <v>11.24752607803199</v>
       </c>
       <c r="N4" s="7">
-        <v>0.28702864182997601</v>
+        <v>0.5906312932722747</v>
       </c>
       <c r="O4" s="7">
-        <v>92.476400073919393</v>
+        <v>94.370727877418204</v>
       </c>
       <c r="P4" s="7">
-        <v>4.8857378614490965E-2</v>
+        <v>0.25668701583267234</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -2835,25 +2835,25 @@
         <v>0</v>
       </c>
       <c r="I6" s="8">
-        <v>8.6481429289654717</v>
+        <v>10.861194151705991</v>
       </c>
       <c r="J6" s="7">
-        <v>3.5192848059269695</v>
+        <v>5.7806325018009819</v>
       </c>
       <c r="K6" s="7">
-        <v>92.15362238081525</v>
+        <v>107.4508885420432</v>
       </c>
       <c r="L6" s="7">
-        <v>604.57011148849551</v>
+        <v>645.57767482432871</v>
       </c>
       <c r="M6" s="7">
         <v>1.1129453862426102</v>
       </c>
       <c r="N6" s="7">
-        <v>0.80850279512987488</v>
+        <v>1.0191734112959214</v>
       </c>
       <c r="O6" s="7">
-        <v>43.048838744004073</v>
+        <v>44.106409809576235</v>
       </c>
       <c r="P6" s="7">
         <v>0.1111612745684489</v>
@@ -2885,25 +2885,25 @@
         <v>0</v>
       </c>
       <c r="I7" s="8">
-        <v>10.241032501375427</v>
+        <v>12.454083724115947</v>
       </c>
       <c r="J7" s="7">
-        <v>4.8244582199920467</v>
+        <v>7.0858059158660591</v>
       </c>
       <c r="K7" s="7">
-        <v>84.998931193442473</v>
+        <v>100.29619735467043</v>
       </c>
       <c r="L7" s="7">
-        <v>672.16846619880585</v>
+        <v>713.17602953463904</v>
       </c>
       <c r="M7" s="7">
         <v>1.1129453862426102</v>
       </c>
       <c r="N7" s="7">
-        <v>1.2296604806572562</v>
+        <v>1.4403310968233027</v>
       </c>
       <c r="O7" s="7">
-        <v>42.209705620814894</v>
+        <v>43.267276686387056</v>
       </c>
       <c r="P7" s="7">
         <v>0.1111612745684489</v>
@@ -2935,28 +2935,28 @@
         <v>12.5</v>
       </c>
       <c r="I8" s="8">
-        <v>7.723153563830877</v>
+        <v>9.9362047865713965</v>
       </c>
       <c r="J8" s="7">
-        <v>4.0697263879765497</v>
+        <v>6.3310740838505621</v>
       </c>
       <c r="K8" s="7">
-        <v>60.365300542752841</v>
+        <v>75.662566703980801</v>
       </c>
       <c r="L8" s="7">
-        <v>323.73594612614454</v>
+        <v>364.74350946197774</v>
       </c>
       <c r="M8" s="7">
-        <v>4.0369522784219489</v>
+        <v>4.9126872817168001</v>
       </c>
       <c r="N8" s="7">
-        <v>0.44808010867540166</v>
+        <v>0.65875072484144814</v>
       </c>
       <c r="O8" s="7">
-        <v>53.559800487169639</v>
+        <v>54.617371552741801</v>
       </c>
       <c r="P8" s="7">
-        <v>4.3803926114115044E-2</v>
+        <v>0.18258265656302264</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -2985,25 +2985,25 @@
         <v>12.9</v>
       </c>
       <c r="I9" s="8">
-        <v>11.41237687212594</v>
+        <v>13.625428094866459</v>
       </c>
       <c r="J9" s="7">
-        <v>7.3679169336236709</v>
+        <v>9.6292646294976834</v>
       </c>
       <c r="K9" s="7">
-        <v>52.852961273504512</v>
+        <v>68.150227434732471</v>
       </c>
       <c r="L9" s="7">
-        <v>272.58630349611065</v>
+        <v>313.59386683194384</v>
       </c>
       <c r="M9" s="7">
         <v>1.1129453862426102</v>
       </c>
       <c r="N9" s="7">
-        <v>1.7865437340503243</v>
+        <v>1.9972143502163708</v>
       </c>
       <c r="O9" s="7">
-        <v>32.234943914991291</v>
+        <v>33.292514980563453</v>
       </c>
       <c r="P9" s="7">
         <v>0.1111612745684489</v>
@@ -3035,16 +3035,16 @@
         <v>12.1</v>
       </c>
       <c r="I10" s="8">
-        <v>8.2504377900868615</v>
+        <v>13.680775170483846</v>
       </c>
       <c r="J10" s="7">
-        <v>6.7679820169001434</v>
+        <v>10.027655287963222</v>
       </c>
       <c r="K10" s="7">
-        <v>52.776392659847048</v>
+        <v>62.014574519851145</v>
       </c>
       <c r="L10" s="7">
-        <v>280.46079555434972</v>
+        <v>338.03518394535678</v>
       </c>
       <c r="M10" s="7">
         <v>1.1958677008877685</v>
@@ -3053,7 +3053,7 @@
         <v>0.26986081446664573</v>
       </c>
       <c r="O10" s="7">
-        <v>26.632661193081361</v>
+        <v>28.52698899658018</v>
       </c>
       <c r="P10" s="7">
         <v>0.14781095043510192</v>
@@ -3085,16 +3085,16 @@
         <v>12.1</v>
       </c>
       <c r="I11" s="8">
-        <v>10.269432959610798</v>
+        <v>15.699770340007785</v>
       </c>
       <c r="J11" s="7">
-        <v>6.7080978147203698</v>
+        <v>9.9677710857834487</v>
       </c>
       <c r="K11" s="7">
-        <v>52.774496118388242</v>
+        <v>62.01267797839234</v>
       </c>
       <c r="L11" s="7">
-        <v>274.00770865648519</v>
+        <v>331.5820970474922</v>
       </c>
       <c r="M11" s="7">
         <v>1.1958677008877685</v>
@@ -3103,7 +3103,7 @@
         <v>0.26986081446664573</v>
       </c>
       <c r="O11" s="7">
-        <v>16.660615740285284</v>
+        <v>18.554943543784102</v>
       </c>
       <c r="P11" s="7">
         <v>0.14781095043510192</v>
@@ -3135,25 +3135,25 @@
         <v>17</v>
       </c>
       <c r="I12" s="8">
-        <v>12.190605020588098</v>
+        <v>14.403656243328617</v>
       </c>
       <c r="J12" s="7">
-        <v>10.40166903983684</v>
+        <v>12.663016735710853</v>
       </c>
       <c r="K12" s="7">
-        <v>188.03043486044382</v>
+        <v>203.32770102167177</v>
       </c>
       <c r="L12" s="7">
-        <v>983.74335550624903</v>
+        <v>1024.7509188420822</v>
       </c>
       <c r="M12" s="7">
-        <v>0.52727551453072508</v>
+        <v>1.4030105178255761</v>
       </c>
       <c r="N12" s="7">
-        <v>0.9038264555914659</v>
+        <v>1.1144970717575124</v>
       </c>
       <c r="O12" s="7">
-        <v>100.20937542184802</v>
+        <v>101.26694648742019</v>
       </c>
       <c r="P12" s="7">
         <v>0.1111612745684489</v>
@@ -3185,25 +3185,25 @@
         <v>17</v>
       </c>
       <c r="I13" s="8">
-        <v>15.536695806373173</v>
+        <v>17.749747029113692</v>
       </c>
       <c r="J13" s="7">
-        <v>13.99434539083504</v>
+        <v>16.255693086709051</v>
       </c>
       <c r="K13" s="7">
-        <v>203.4741176192413</v>
+        <v>218.77138378046925</v>
       </c>
       <c r="L13" s="7">
-        <v>1002.6554579921934</v>
+        <v>1043.6630213280268</v>
       </c>
       <c r="M13" s="7">
         <v>1.1129453862426102</v>
       </c>
       <c r="N13" s="7">
-        <v>0.87733017023819126</v>
+        <v>1.0880007864042378</v>
       </c>
       <c r="O13" s="7">
-        <v>308.93383473293488</v>
+        <v>309.99140579850706</v>
       </c>
       <c r="P13" s="7">
         <v>0.1111612745684489</v>
@@ -3235,25 +3235,25 @@
         <v>13.3</v>
       </c>
       <c r="I14" s="8">
-        <v>11.963268631310658</v>
+        <v>14.176319854051178</v>
       </c>
       <c r="J14" s="7">
-        <v>2.6562065835397597</v>
+        <v>4.9175542794137721</v>
       </c>
       <c r="K14" s="7">
-        <v>87.976380745454065</v>
+        <v>103.27364690668203</v>
       </c>
       <c r="L14" s="7">
-        <v>416.38756224861442</v>
+        <v>457.39512558444767</v>
       </c>
       <c r="M14" s="7">
         <v>1.1129453862426102</v>
       </c>
       <c r="N14" s="7">
-        <v>0.24686410176383572</v>
+        <v>0.45753471792988221</v>
       </c>
       <c r="O14" s="7">
-        <v>46.294750150057538</v>
+        <v>47.352321215629701</v>
       </c>
       <c r="P14" s="7">
         <v>0.1111612745684489</v>
@@ -3285,25 +3285,25 @@
         <v>13</v>
       </c>
       <c r="I15" s="8">
-        <v>13.290097763273584</v>
+        <v>15.503148986014104</v>
       </c>
       <c r="J15" s="7">
-        <v>6.4686238612445885</v>
+        <v>8.729971557118601</v>
       </c>
       <c r="K15" s="7">
-        <v>83.993491604947906</v>
+        <v>99.290757766175858</v>
       </c>
       <c r="L15" s="7">
-        <v>374.69015665735589</v>
+        <v>415.69771999318908</v>
       </c>
       <c r="M15" s="7">
         <v>1.1129453862426102</v>
       </c>
       <c r="N15" s="7">
-        <v>0.71247853886037049</v>
+        <v>0.92314915502641692</v>
       </c>
       <c r="O15" s="7">
-        <v>54.745122190116732</v>
+        <v>55.802693255688894</v>
       </c>
       <c r="P15" s="7">
         <v>0.1111612745684489</v>
@@ -3335,25 +3335,25 @@
         <v>13.1</v>
       </c>
       <c r="I16" s="8">
-        <v>9.5335186357862316</v>
+        <v>11.746569858526751</v>
       </c>
       <c r="J16" s="7">
-        <v>7.8848762737771541</v>
+        <v>10.146223969651167</v>
       </c>
       <c r="K16" s="7">
-        <v>118.74781426142451</v>
+        <v>134.04508042265246</v>
       </c>
       <c r="L16" s="7">
-        <v>601.31052066399172</v>
+        <v>642.31808399982492</v>
       </c>
       <c r="M16" s="7">
         <v>1.1129453862426102</v>
       </c>
       <c r="N16" s="7">
-        <v>0.39905111244191777</v>
+        <v>0.60972172860796425</v>
       </c>
       <c r="O16" s="7">
-        <v>42.811415498819088</v>
+        <v>43.86898656439125</v>
       </c>
       <c r="P16" s="7">
         <v>0.1111612745684489</v>
@@ -3385,22 +3385,22 @@
         <v>12.3</v>
       </c>
       <c r="I17" s="8">
-        <v>13.523869944445943</v>
+        <v>18.95420732484293</v>
       </c>
       <c r="J17" s="7">
-        <v>4.3962596437724368</v>
+        <v>7.6559329148355149</v>
       </c>
       <c r="K17" s="7">
-        <v>142.65666499414877</v>
+        <v>151.89484685415286</v>
       </c>
       <c r="L17" s="7">
-        <v>528.36164200497626</v>
+        <v>585.93603039598338</v>
       </c>
       <c r="M17" s="7">
         <v>1.1958677008877685</v>
       </c>
       <c r="N17" s="7">
-        <v>0.64911738035463429</v>
+        <v>0.95272003179693299</v>
       </c>
       <c r="O17" s="7">
         <v>1.3860603517993531</v>
@@ -3438,25 +3438,25 @@
         <v>3.294691651949619</v>
       </c>
       <c r="J18" s="11">
-        <v>4.2006154437027199</v>
+        <v>7.4602887147657979</v>
       </c>
       <c r="K18" s="11">
-        <v>129.93978248378903</v>
+        <v>139.17796434379312</v>
       </c>
       <c r="L18" s="11">
-        <v>479.29078000632234</v>
+        <v>536.8651683973294</v>
       </c>
       <c r="M18" s="11">
         <v>1.1958677008877685</v>
       </c>
       <c r="N18" s="11">
-        <v>0.45693177420806996</v>
+        <v>0.76053442565036866</v>
       </c>
       <c r="O18" s="11">
-        <v>22.428972490118575</v>
+        <v>24.323300293617393</v>
       </c>
       <c r="P18" s="11">
-        <v>5.2415795464874737E-2</v>
+        <v>0.26024543268305611</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -3485,28 +3485,28 @@
         <v>19.2</v>
       </c>
       <c r="I19" s="13">
-        <v>21.30415121650249</v>
+        <v>26.734488596899475</v>
       </c>
       <c r="J19" s="7">
-        <v>16.957067567092153</v>
+        <v>20.216740838155232</v>
       </c>
       <c r="K19" s="7">
-        <v>272.75078961368695</v>
+        <v>281.98897147369104</v>
       </c>
       <c r="L19" s="7">
-        <v>1876.9175168400741</v>
+        <v>1934.4919052310811</v>
       </c>
       <c r="M19" s="7">
-        <v>15.589256471146513</v>
+        <v>16.741144069633858</v>
       </c>
       <c r="N19" s="7">
         <v>0.26986081446664573</v>
       </c>
       <c r="O19" s="7">
-        <v>69.737070282733029</v>
+        <v>71.63139808623184</v>
       </c>
       <c r="P19" s="7">
-        <v>0.14329572011243369</v>
+        <v>0.35112535733061506</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -3535,28 +3535,28 @@
         <v>19.2</v>
       </c>
       <c r="I20" s="8">
-        <v>20.974241898039374</v>
+        <v>26.404579278436362</v>
       </c>
       <c r="J20" s="7">
-        <v>18.632952167822559</v>
+        <v>21.892625438885634</v>
       </c>
       <c r="K20" s="7">
-        <v>256.72240936564435</v>
+        <v>265.96059122564844</v>
       </c>
       <c r="L20" s="7">
-        <v>1921.3504792475719</v>
+        <v>1978.9248676385791</v>
       </c>
       <c r="M20" s="7">
-        <v>13.885023384936066</v>
+        <v>15.036910983423409</v>
       </c>
       <c r="N20" s="7">
-        <v>0.19250369605467188</v>
+        <v>0.49610634749697063</v>
       </c>
       <c r="O20" s="7">
-        <v>51.687137842381077</v>
+        <v>53.581465645879895</v>
       </c>
       <c r="P20" s="7">
-        <v>0.11625484443552558</v>
+        <v>0.32408448165370696</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -3585,28 +3585,28 @@
         <v>19.2</v>
       </c>
       <c r="I21" s="8">
-        <v>16.159166874294037</v>
+        <v>21.589504254691025</v>
       </c>
       <c r="J21" s="7">
-        <v>14.547063318271652</v>
+        <v>17.806736589334729</v>
       </c>
       <c r="K21" s="7">
-        <v>231.67970904650599</v>
+        <v>240.91789090651008</v>
       </c>
       <c r="L21" s="7">
-        <v>1597.5152002580071</v>
+        <v>1655.0895886490143</v>
       </c>
       <c r="M21" s="7">
-        <v>11.878952599948505</v>
+        <v>13.030840198435849</v>
       </c>
       <c r="N21" s="7">
-        <v>7.4805605590710367E-2</v>
+        <v>0.37840825703300907</v>
       </c>
       <c r="O21" s="7">
-        <v>68.820302118447515</v>
+        <v>70.714629921946326</v>
       </c>
       <c r="P21" s="7">
-        <v>9.6992721186797359E-2</v>
+        <v>0.30482235840497873</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -3635,28 +3635,28 @@
         <v>18</v>
       </c>
       <c r="I22" s="8">
-        <v>13.752418645299654</v>
+        <v>15.965469868040174</v>
       </c>
       <c r="J22" s="7">
-        <v>13.492116823330544</v>
+        <v>15.753464519204556</v>
       </c>
       <c r="K22" s="7">
-        <v>210.68234238306738</v>
+        <v>225.97960854429533</v>
       </c>
       <c r="L22" s="7">
-        <v>816.85342698460158</v>
+        <v>857.86099032043489</v>
       </c>
       <c r="M22" s="7">
-        <v>1.1958677008877685</v>
+        <v>1.1129453862426102</v>
       </c>
       <c r="N22" s="7">
-        <v>0.26986081446664573</v>
+        <v>0.22837495358902107</v>
       </c>
       <c r="O22" s="7">
-        <v>60.331899170527571</v>
+        <v>61.389470236099733</v>
       </c>
       <c r="P22" s="7">
-        <v>0.14781095043510192</v>
+        <v>0.1111612745684489</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -3685,28 +3685,28 @@
         <v>17.899999999999999</v>
       </c>
       <c r="I23" s="8">
-        <v>16.858802879119047</v>
+        <v>19.071854101859564</v>
       </c>
       <c r="J23" s="7">
-        <v>9.2501449113551288</v>
+        <v>11.511492607229142</v>
       </c>
       <c r="K23" s="7">
-        <v>212.85728186209334</v>
+        <v>228.1545480233213</v>
       </c>
       <c r="L23" s="7">
-        <v>812.83864528808385</v>
+        <v>853.84620862391705</v>
       </c>
       <c r="M23" s="7">
-        <v>7.580402147983456E-2</v>
+        <v>0.95153902477468555</v>
       </c>
       <c r="N23" s="7">
-        <v>0.8199714238494491</v>
+        <v>1.0306420400154956</v>
       </c>
       <c r="O23" s="7">
-        <v>64.57581973000508</v>
+        <v>65.633390795577242</v>
       </c>
       <c r="P23" s="7">
-        <v>0.14781095043510192</v>
+        <v>0.1111612745684489</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -3735,28 +3735,28 @@
         <v>13.9</v>
       </c>
       <c r="I24" s="8">
-        <v>31.600551929911145</v>
+        <v>33.813603152651666</v>
       </c>
       <c r="J24" s="7">
-        <v>4.9007173336657202</v>
+        <v>7.1620650295397326</v>
       </c>
       <c r="K24" s="7">
-        <v>245.38289111836838</v>
+        <v>260.6801572795963</v>
       </c>
       <c r="L24" s="7">
-        <v>722.30556558782041</v>
+        <v>763.31312892365361</v>
       </c>
       <c r="M24" s="7">
-        <v>1.1958677008877685</v>
+        <v>1.1129453862426102</v>
       </c>
       <c r="N24" s="7">
-        <v>0.41868122617614406</v>
+        <v>0.62935184234219055</v>
       </c>
       <c r="O24" s="7">
-        <v>61.655595432621091</v>
+        <v>62.713166498193253</v>
       </c>
       <c r="P24" s="7">
-        <v>0.14781095043510192</v>
+        <v>0.1111612745684489</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -3785,28 +3785,28 @@
         <v>13.6</v>
       </c>
       <c r="I25" s="8">
-        <v>16.376373513090872</v>
+        <v>18.58942473583139</v>
       </c>
       <c r="J25" s="7">
-        <v>9.3860203920863441</v>
+        <v>11.647368087960356</v>
       </c>
       <c r="K25" s="7">
-        <v>74.701862588140727</v>
+        <v>89.99912874936868</v>
       </c>
       <c r="L25" s="7">
-        <v>244.00844391542461</v>
+        <v>285.01600725125775</v>
       </c>
       <c r="M25" s="7">
-        <v>1.1958677008877685</v>
+        <v>1.1129453862426102</v>
       </c>
       <c r="N25" s="7">
-        <v>0.43732282851804322</v>
+        <v>0.6479934446840897</v>
       </c>
       <c r="O25" s="7">
-        <v>28.036090808432725</v>
+        <v>29.093661874004884</v>
       </c>
       <c r="P25" s="7">
-        <v>0.14781095043510192</v>
+        <v>0.1111612745684489</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -3835,28 +3835,28 @@
         <v>13.3</v>
       </c>
       <c r="I26" s="8">
-        <v>11.652179756181923</v>
+        <v>13.865230978922442</v>
       </c>
       <c r="J26" s="7">
-        <v>4.8410948025002769</v>
+        <v>7.1024424983742893</v>
       </c>
       <c r="K26" s="7">
-        <v>63.082573317423218</v>
+        <v>78.379839478651178</v>
       </c>
       <c r="L26" s="7">
-        <v>249.46046084859765</v>
+        <v>290.46802418443087</v>
       </c>
       <c r="M26" s="7">
-        <v>1.1958677008877685</v>
+        <v>1.1129453862426102</v>
       </c>
       <c r="N26" s="7">
-        <v>1.4911647101739154</v>
+        <v>1.7018353263399619</v>
       </c>
       <c r="O26" s="7">
-        <v>0.67844995168143307</v>
+        <v>1.7360210172535926</v>
       </c>
       <c r="P26" s="7">
-        <v>0.14781095043510192</v>
+        <v>0.1111612745684489</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -3885,28 +3885,28 @@
         <v>13.3</v>
       </c>
       <c r="I27" s="8">
-        <v>10.019016580635045</v>
+        <v>12.232067803375564</v>
       </c>
       <c r="J27" s="7">
-        <v>7.4988422377614183</v>
+        <v>9.7601899336354307</v>
       </c>
       <c r="K27" s="7">
-        <v>66.314392023673463</v>
+        <v>81.611658184901415</v>
       </c>
       <c r="L27" s="7">
-        <v>272.66695788158853</v>
+        <v>313.67452121742178</v>
       </c>
       <c r="M27" s="7">
-        <v>1.1958677008877685</v>
+        <v>1.1129453862426102</v>
       </c>
       <c r="N27" s="7">
-        <v>1.0158286390201359</v>
+        <v>1.2264992551861824</v>
       </c>
       <c r="O27" s="7">
-        <v>21.531491919049884</v>
+        <v>22.589062984622043</v>
       </c>
       <c r="P27" s="7">
-        <v>0.16054787287462852</v>
+        <v>0.29932660332353611</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -3935,16 +3935,16 @@
         <v>13.5</v>
       </c>
       <c r="I28" s="8">
-        <v>2.2182157000368203</v>
+        <v>7.6485530804338051</v>
       </c>
       <c r="J28" s="7">
-        <v>0.77789424633325055</v>
+        <v>4.0375675173963286</v>
       </c>
       <c r="K28" s="7">
-        <v>45.24613629026895</v>
+        <v>54.48431815027304</v>
       </c>
       <c r="L28" s="7">
-        <v>228.29917504098086</v>
+        <v>285.87356343198792</v>
       </c>
       <c r="M28" s="7">
         <v>1.1958677008877685</v>
@@ -3953,7 +3953,7 @@
         <v>0.26986081446664573</v>
       </c>
       <c r="O28" s="7">
-        <v>25.862881893033098</v>
+        <v>27.757209696531916</v>
       </c>
       <c r="P28" s="7">
         <v>0.14781095043510192</v>
@@ -3985,25 +3985,25 @@
         <v>13.5</v>
       </c>
       <c r="I29" s="8">
-        <v>10.100930571137431</v>
+        <v>15.531267951534415</v>
       </c>
       <c r="J29" s="7">
-        <v>3.5033612882208551</v>
+        <v>6.7630345592839332</v>
       </c>
       <c r="K29" s="7">
-        <v>120.79011391660248</v>
+        <v>130.02829577660657</v>
       </c>
       <c r="L29" s="7">
-        <v>489.73643234995075</v>
+        <v>547.31082074095787</v>
       </c>
       <c r="M29" s="7">
         <v>1.1958677008877685</v>
       </c>
       <c r="N29" s="7">
-        <v>0.71358820428604897</v>
+        <v>1.0171908557283476</v>
       </c>
       <c r="O29" s="7">
-        <v>22.754151722349633</v>
+        <v>24.648479525848451</v>
       </c>
       <c r="P29" s="7">
         <v>0.14781095043510192</v>
@@ -4035,28 +4035,28 @@
         <v>19.899999999999999</v>
       </c>
       <c r="I30" s="8">
-        <v>22.269988788590322</v>
+        <v>24.483040011330839</v>
       </c>
       <c r="J30" s="7">
-        <v>16.690451313352909</v>
+        <v>18.951799009226921</v>
       </c>
       <c r="K30" s="7">
-        <v>275.32999323167735</v>
+        <v>290.62725939290527</v>
       </c>
       <c r="L30" s="7">
-        <v>1014.7672752832757</v>
+        <v>1055.774838619109</v>
       </c>
       <c r="M30" s="7">
-        <v>0.50844367941634605</v>
+        <v>1.384178682711197</v>
       </c>
       <c r="N30" s="7">
-        <v>0.95122828074142096</v>
+        <v>1.1618988969074675</v>
       </c>
       <c r="O30" s="7">
-        <v>93.526582213957639</v>
+        <v>94.584153279529801</v>
       </c>
       <c r="P30" s="7">
-        <v>0.14781095043510192</v>
+        <v>0.1111612745684489</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -4085,28 +4085,28 @@
         <v>13.9</v>
       </c>
       <c r="I31" s="8">
-        <v>21.680780850024064</v>
+        <v>23.893832072764582</v>
       </c>
       <c r="J31" s="7">
-        <v>10.267567368756556</v>
+        <v>12.528915064630569</v>
       </c>
       <c r="K31" s="7">
-        <v>167.62222767356886</v>
+        <v>182.91949383479681</v>
       </c>
       <c r="L31" s="7">
-        <v>478.11231128104146</v>
+        <v>519.11987461687465</v>
       </c>
       <c r="M31" s="7">
-        <v>1.1958677008877685</v>
+        <v>1.1129453862426102</v>
       </c>
       <c r="N31" s="7">
-        <v>1.34746542019398</v>
+        <v>1.5581360363600265</v>
       </c>
       <c r="O31" s="7">
-        <v>38.197139506192791</v>
+        <v>39.254710571764953</v>
       </c>
       <c r="P31" s="7">
-        <v>0.14781095043510192</v>
+        <v>0.1111612745684489</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -4135,28 +4135,28 @@
         <v>13.6</v>
       </c>
       <c r="I32" s="8">
-        <v>13.237306484611695</v>
+        <v>15.450357707352214</v>
       </c>
       <c r="J32" s="7">
-        <v>7.8454973027763781</v>
+        <v>10.106844998650391</v>
       </c>
       <c r="K32" s="7">
-        <v>142.61313866145213</v>
+        <v>157.91040482268008</v>
       </c>
       <c r="L32" s="7">
-        <v>409.73529852646084</v>
+        <v>450.74286186229409</v>
       </c>
       <c r="M32" s="7">
-        <v>1.1958677008877685</v>
+        <v>1.1129453862426102</v>
       </c>
       <c r="N32" s="7">
-        <v>0.65961434277977338</v>
+        <v>0.87028495894581981</v>
       </c>
       <c r="O32" s="7">
-        <v>70.086274005123911</v>
+        <v>71.143845070696074</v>
       </c>
       <c r="P32" s="7">
-        <v>0.14781095043510192</v>
+        <v>0.1111612745684489</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -4185,28 +4185,28 @@
         <v>13.7</v>
       </c>
       <c r="I33" s="8">
-        <v>13.220216412084975</v>
+        <v>15.433267634825494</v>
       </c>
       <c r="J33" s="7">
-        <v>9.8383509435461534</v>
+        <v>12.099698639420165</v>
       </c>
       <c r="K33" s="7">
-        <v>159.08172722421781</v>
+        <v>174.37899338544577</v>
       </c>
       <c r="L33" s="7">
-        <v>620.16027912851655</v>
+        <v>661.16784246434975</v>
       </c>
       <c r="M33" s="7">
-        <v>1.1958677008877685</v>
+        <v>1.1129453862426102</v>
       </c>
       <c r="N33" s="7">
-        <v>0.63904060665594997</v>
+        <v>0.8497112228219964</v>
       </c>
       <c r="O33" s="7">
-        <v>29.03895344818493</v>
+        <v>30.096524513757089</v>
       </c>
       <c r="P33" s="7">
-        <v>0.14781095043510192</v>
+        <v>0.1111612745684489</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -4235,28 +4235,28 @@
         <v>13.5</v>
       </c>
       <c r="I34" s="8">
-        <v>12.291150879653935</v>
+        <v>14.504202102394455</v>
       </c>
       <c r="J34" s="7">
-        <v>8.5519250500049147</v>
+        <v>10.813272745878928</v>
       </c>
       <c r="K34" s="7">
-        <v>154.0644973727893</v>
+        <v>169.36176353401726</v>
       </c>
       <c r="L34" s="7">
-        <v>564.6767636309304</v>
+        <v>605.68432696676359</v>
       </c>
       <c r="M34" s="7">
-        <v>1.1958677008877685</v>
+        <v>1.1129453862426102</v>
       </c>
       <c r="N34" s="7">
-        <v>1.1158581877920237</v>
+        <v>1.3265288039580703</v>
       </c>
       <c r="O34" s="7">
-        <v>23.650481434611535</v>
+        <v>24.708052500183694</v>
       </c>
       <c r="P34" s="7">
-        <v>0.14781095043510192</v>
+        <v>0.1111612745684489</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -4285,16 +4285,16 @@
         <v>13.4</v>
       </c>
       <c r="I35" s="17">
-        <v>10.05511463282703</v>
+        <v>15.485452013224014</v>
       </c>
       <c r="J35" s="17">
-        <v>2.5843468416060533</v>
+        <v>5.8440201126691314</v>
       </c>
       <c r="K35" s="17">
-        <v>56.399126753808602</v>
+        <v>65.637308613812692</v>
       </c>
       <c r="L35" s="17">
-        <v>302.18557740103256</v>
+        <v>359.75996579203957</v>
       </c>
       <c r="M35" s="17">
         <v>1.1958677008877685</v>
@@ -4303,7 +4303,7 @@
         <v>0.26986081446664573</v>
       </c>
       <c r="O35" s="17">
-        <v>21.245825824436938</v>
+        <v>23.140153627935756</v>
       </c>
       <c r="P35" s="17">
         <v>0.14781095043510192</v>
@@ -4335,25 +4335,25 @@
         <v>13.4</v>
       </c>
       <c r="I36" s="11">
-        <v>6.0586378601219266</v>
+        <v>11.488975240518911</v>
       </c>
       <c r="J36" s="11">
-        <v>3.1548236337187934</v>
+        <v>6.4144969047818714</v>
       </c>
       <c r="K36" s="11">
-        <v>128.1882128775953</v>
+        <v>137.4263947375994</v>
       </c>
       <c r="L36" s="11">
-        <v>569.80729737318268</v>
+        <v>627.38168576418968</v>
       </c>
       <c r="M36" s="11">
         <v>1.1958677008877685</v>
       </c>
       <c r="N36" s="11">
-        <v>0.4449765697394148</v>
+        <v>0.74857922118171349</v>
       </c>
       <c r="O36" s="11">
-        <v>28.388812615689194</v>
+        <v>30.283140419188012</v>
       </c>
       <c r="P36" s="11">
         <v>0.14781095043510192</v>
@@ -4385,25 +4385,25 @@
         <v>17.600000000000001</v>
       </c>
       <c r="I37" s="8">
-        <v>5.8607253064122009</v>
+        <v>11.291062686809186</v>
       </c>
       <c r="J37" s="7">
-        <v>4.4705614023943614</v>
+        <v>7.7302346734574394</v>
       </c>
       <c r="K37" s="7">
-        <v>160.62373031834213</v>
+        <v>169.86191217834622</v>
       </c>
       <c r="L37" s="7">
-        <v>1186.2044607522994</v>
+        <v>1243.7788491433064</v>
       </c>
       <c r="M37" s="7">
-        <v>7.546827833375624</v>
+        <v>8.6987154318629667</v>
       </c>
       <c r="N37" s="7">
-        <v>0.2146285217423185</v>
+        <v>0.5182311731846172</v>
       </c>
       <c r="O37" s="7">
-        <v>69.079731148253146</v>
+        <v>70.974058951751957</v>
       </c>
       <c r="P37" s="7">
         <v>0.14781095043510192</v>
@@ -4435,28 +4435,28 @@
         <v>17.600000000000001</v>
       </c>
       <c r="I38" s="8">
-        <v>20.475883656254275</v>
+        <v>25.906221036651264</v>
       </c>
       <c r="J38" s="7">
-        <v>17.726430876166766</v>
+        <v>20.986104147229842</v>
       </c>
       <c r="K38" s="7">
-        <v>365.39632593871573</v>
+        <v>374.63450779871982</v>
       </c>
       <c r="L38" s="7">
-        <v>2743.2465307286739</v>
+        <v>2800.8209191196806</v>
       </c>
       <c r="M38" s="7">
-        <v>17.585915274731228</v>
+        <v>18.737802873218573</v>
       </c>
       <c r="N38" s="7">
-        <v>1.42289214720447</v>
+        <v>1.7264947986467685</v>
       </c>
       <c r="O38" s="7">
-        <v>136.60275014510975</v>
+        <v>138.49707794860859</v>
       </c>
       <c r="P38" s="7">
-        <v>0.20235472889609379</v>
+        <v>0.41018436611427517</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -4485,28 +4485,28 @@
         <v>17.600000000000001</v>
       </c>
       <c r="I39" s="8">
-        <v>23.684546203819956</v>
+        <v>29.114883584216944</v>
       </c>
       <c r="J39" s="7">
-        <v>19.165795078524397</v>
+        <v>22.425468349587472</v>
       </c>
       <c r="K39" s="7">
-        <v>456.2457735243114</v>
+        <v>465.48395538431549</v>
       </c>
       <c r="L39" s="7">
-        <v>3200.0443990838849</v>
+        <v>3257.6187874748916</v>
       </c>
       <c r="M39" s="7">
-        <v>20.17202657209965</v>
+        <v>21.323914170586995</v>
       </c>
       <c r="N39" s="7">
-        <v>1.8567563584880928</v>
+        <v>2.1603590099303913</v>
       </c>
       <c r="O39" s="7">
-        <v>179.50768190888317</v>
+        <v>181.40200971238201</v>
       </c>
       <c r="P39" s="7">
-        <v>0.25741148084242321</v>
+        <v>0.46524111806060459</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -4535,28 +4535,28 @@
         <v>16</v>
       </c>
       <c r="I40" s="8">
-        <v>23.186605856778819</v>
+        <v>25.399657079519336</v>
       </c>
       <c r="J40" s="7">
-        <v>12.267279414884101</v>
+        <v>14.528627110758112</v>
       </c>
       <c r="K40" s="7">
-        <v>210.77935432460185</v>
+        <v>226.07662048582981</v>
       </c>
       <c r="L40" s="7">
-        <v>752.40678472426976</v>
+        <v>793.41434806010295</v>
       </c>
       <c r="M40" s="7">
-        <v>1.1958677008877685</v>
+        <v>1.1129453862426102</v>
       </c>
       <c r="N40" s="7">
-        <v>0.1065075359042697</v>
+        <v>0.31717815207031619</v>
       </c>
       <c r="O40" s="7">
-        <v>100.33045464918452</v>
+        <v>101.38802571475668</v>
       </c>
       <c r="P40" s="7">
-        <v>0.14781095043510192</v>
+        <v>0.1111612745684489</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -4585,28 +4585,28 @@
         <v>16</v>
       </c>
       <c r="I41" s="8">
-        <v>17.558055362470402</v>
+        <v>19.771106585210919</v>
       </c>
       <c r="J41" s="7">
-        <v>9.2703064020170736</v>
+        <v>11.531654097891087</v>
       </c>
       <c r="K41" s="7">
-        <v>150.71482059407342</v>
+        <v>166.01208675530137</v>
       </c>
       <c r="L41" s="7">
-        <v>567.03093360587059</v>
+        <v>608.0384969417039</v>
       </c>
       <c r="M41" s="7">
-        <v>1.1958677008877685</v>
+        <v>1.1129453862426102</v>
       </c>
       <c r="N41" s="7">
-        <v>0.10235582356490419</v>
+        <v>0.31302643973095068</v>
       </c>
       <c r="O41" s="7">
-        <v>47.399109225638647</v>
+        <v>48.456680291210809</v>
       </c>
       <c r="P41" s="7">
-        <v>0.14781095043510192</v>
+        <v>0.1111612745684489</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -4635,28 +4635,28 @@
         <v>13.9</v>
       </c>
       <c r="I42" s="8">
-        <v>10.708493564824844</v>
+        <v>12.921544787565363</v>
       </c>
       <c r="J42" s="7">
-        <v>7.5389023340374157</v>
+        <v>9.8002500299114281</v>
       </c>
       <c r="K42" s="7">
-        <v>107.23452424328241</v>
+        <v>122.53179040451037</v>
       </c>
       <c r="L42" s="7">
-        <v>190.50574267046164</v>
+        <v>231.51330600629484</v>
       </c>
       <c r="M42" s="7">
-        <v>1.1958677008877685</v>
+        <v>1.1129453862426102</v>
       </c>
       <c r="N42" s="7">
-        <v>2.7398687978579286</v>
+        <v>2.9505394140239751</v>
       </c>
       <c r="O42" s="7">
-        <v>35.345919268414114</v>
+        <v>36.403490333986277</v>
       </c>
       <c r="P42" s="7">
-        <v>0.14781095043510192</v>
+        <v>0.1111612745684489</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -4685,28 +4685,28 @@
         <v>13.9</v>
       </c>
       <c r="I43" s="8">
-        <v>14.701131601634659</v>
+        <v>16.914182824375178</v>
       </c>
       <c r="J43" s="7">
-        <v>7.6219526620325277</v>
+        <v>9.8833003579065402</v>
       </c>
       <c r="K43" s="7">
-        <v>108.82172749401943</v>
+        <v>124.11899365524738</v>
       </c>
       <c r="L43" s="7">
-        <v>215.60742343959029</v>
+        <v>256.61498677542352</v>
       </c>
       <c r="M43" s="7">
-        <v>1.1958677008877685</v>
+        <v>1.1129453862426102</v>
       </c>
       <c r="N43" s="7">
-        <v>0.13286263268760207</v>
+        <v>0.34353324885364855</v>
       </c>
       <c r="O43" s="7">
-        <v>40.062890795524751</v>
+        <v>41.120461861096913</v>
       </c>
       <c r="P43" s="7">
-        <v>0.14781095043510192</v>
+        <v>0.1111612745684489</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -4735,28 +4735,28 @@
         <v>12.5</v>
       </c>
       <c r="I44" s="8">
-        <v>9.4340179540365803</v>
+        <v>11.6470691767771</v>
       </c>
       <c r="J44" s="7">
-        <v>4.5344570135057367</v>
+        <v>6.7958047093797491</v>
       </c>
       <c r="K44" s="7">
-        <v>56.309101600881412</v>
+        <v>71.606367762109372</v>
       </c>
       <c r="L44" s="7">
-        <v>233.04714575418456</v>
+        <v>274.05470909001781</v>
       </c>
       <c r="M44" s="7">
-        <v>1.1958677008877685</v>
+        <v>1.1129453862426102</v>
       </c>
       <c r="N44" s="7">
-        <v>1.7761700188637726</v>
+        <v>1.9868406350298193</v>
       </c>
       <c r="O44" s="7">
-        <v>17.281043592171777</v>
+        <v>18.338614657743936</v>
       </c>
       <c r="P44" s="7">
-        <v>0.14781095043510192</v>
+        <v>0.1111612745684489</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -4785,28 +4785,28 @@
         <v>12.4</v>
       </c>
       <c r="I45" s="8">
-        <v>10.458472758460839</v>
+        <v>12.671523981201359</v>
       </c>
       <c r="J45" s="7">
-        <v>7.3144599443533869</v>
+        <v>9.5758076402273993</v>
       </c>
       <c r="K45" s="7">
-        <v>56.45891692650779</v>
+        <v>71.756183087735749</v>
       </c>
       <c r="L45" s="7">
-        <v>271.96356969238758</v>
+        <v>312.97113302822083</v>
       </c>
       <c r="M45" s="7">
-        <v>1.1958677008877685</v>
+        <v>1.1129453862426102</v>
       </c>
       <c r="N45" s="7">
-        <v>0.77698026269420262</v>
+        <v>0.98765087886024894</v>
       </c>
       <c r="O45" s="7">
-        <v>25.713508932034774</v>
+        <v>26.771079997606932</v>
       </c>
       <c r="P45" s="7">
-        <v>0.14781095043510192</v>
+        <v>0.1111612745684489</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -4835,28 +4835,28 @@
         <v>10.6</v>
       </c>
       <c r="I46" s="8">
-        <v>10.171040140675641</v>
+        <v>15.601377521072626</v>
       </c>
       <c r="J46" s="7">
-        <v>1.7033092044975611</v>
+        <v>4.9629824755606391</v>
       </c>
       <c r="K46" s="7">
-        <v>29.024051479899189</v>
+        <v>38.262233339903283</v>
       </c>
       <c r="L46" s="7">
-        <v>219.30598307285743</v>
+        <v>276.88037146386444</v>
       </c>
       <c r="M46" s="7">
-        <v>0.46046471285641255</v>
+        <v>1.6123523113437555</v>
       </c>
       <c r="N46" s="7">
-        <v>2.4421239454546564</v>
+        <v>2.7457265968969549</v>
       </c>
       <c r="O46" s="7">
-        <v>6.4165012566076314</v>
+        <v>8.3108290601064496</v>
       </c>
       <c r="P46" s="7">
-        <v>3.3668623372367312</v>
+        <v>3.5746919744549128</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -4885,28 +4885,28 @@
         <v>10.5</v>
       </c>
       <c r="I47" s="8">
-        <v>9.4982614285140894</v>
+        <v>14.928598808911074</v>
       </c>
       <c r="J47" s="7">
-        <v>0.295934179992976</v>
+        <v>3.555607451056054</v>
       </c>
       <c r="K47" s="7">
-        <v>30.249505819300477</v>
+        <v>39.487687679304571</v>
       </c>
       <c r="L47" s="7">
-        <v>170.07848004227611</v>
+        <v>227.65286843328315</v>
       </c>
       <c r="M47" s="7">
-        <v>0.82702690242715082</v>
+        <v>1.9789145009144939</v>
       </c>
       <c r="N47" s="7">
-        <v>1.6456485670780072</v>
+        <v>1.9492512185203057</v>
       </c>
       <c r="O47" s="7">
-        <v>39.529192315317665</v>
+        <v>41.423520118816484</v>
       </c>
       <c r="P47" s="7">
-        <v>1.9236300036063865</v>
+        <v>2.1314596408245681</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -4935,25 +4935,25 @@
         <v>10.4</v>
       </c>
       <c r="I48" s="8">
-        <v>0.97215704697795502</v>
+        <v>6.4024944273749398</v>
       </c>
       <c r="J48" s="7">
         <v>2.455669311888399</v>
       </c>
       <c r="K48" s="7">
-        <v>28.17057392837042</v>
+        <v>37.408755788374513</v>
       </c>
       <c r="L48" s="7">
-        <v>137.59711894563236</v>
+        <v>195.17150733663939</v>
       </c>
       <c r="M48" s="7">
         <v>1.1958677008877685</v>
       </c>
       <c r="N48" s="7">
-        <v>0.22800529115980406</v>
+        <v>0.53160794260210276</v>
       </c>
       <c r="O48" s="7">
-        <v>22.194358737828761</v>
+        <v>24.088686541327579</v>
       </c>
       <c r="P48" s="7">
         <v>0.14781095043510192</v>
@@ -4985,28 +4985,28 @@
         <v>163</v>
       </c>
       <c r="I49" s="8">
-        <v>17.208248989382668</v>
+        <v>19.421300212123185</v>
       </c>
       <c r="J49" s="7">
-        <v>5.7418019338160287</v>
+        <v>8.0031496296900411</v>
       </c>
       <c r="K49" s="7">
-        <v>167.24311470844523</v>
+        <v>182.54038086967319</v>
       </c>
       <c r="L49" s="7">
-        <v>699.01455089996853</v>
+        <v>740.02211423580184</v>
       </c>
       <c r="M49" s="7">
-        <v>1.1958677008877685</v>
+        <v>1.1129453862426102</v>
       </c>
       <c r="N49" s="7">
-        <v>0.11581147725613378</v>
+        <v>0.32648209342218026</v>
       </c>
       <c r="O49" s="7">
-        <v>47.105060483056135</v>
+        <v>48.162631548628298</v>
       </c>
       <c r="P49" s="7">
-        <v>0.14781095043510192</v>
+        <v>0.1111612745684489</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -5035,28 +5035,28 @@
         <v>16</v>
       </c>
       <c r="I50" s="8">
-        <v>19.287792581712516</v>
+        <v>21.500843804453034</v>
       </c>
       <c r="J50" s="7">
-        <v>6.096896423141275</v>
+        <v>8.3582441190152874</v>
       </c>
       <c r="K50" s="7">
-        <v>197.34108275588599</v>
+        <v>212.63834891711394</v>
       </c>
       <c r="L50" s="7">
-        <v>708.015124940021</v>
+        <v>749.02268827585419</v>
       </c>
       <c r="M50" s="7">
-        <v>1.1958677008877685</v>
+        <v>1.1129453862426102</v>
       </c>
       <c r="N50" s="7">
-        <v>0.44897954550363467</v>
+        <v>0.65965016166968116</v>
       </c>
       <c r="O50" s="7">
-        <v>73.976955526123561</v>
+        <v>75.034526591695723</v>
       </c>
       <c r="P50" s="7">
-        <v>0.14781095043510192</v>
+        <v>0.1111612745684489</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -5085,28 +5085,28 @@
         <v>15.9</v>
       </c>
       <c r="I51" s="8">
-        <v>9.9848433997568034</v>
+        <v>12.197894622497323</v>
       </c>
       <c r="J51" s="7">
-        <v>5.4819744884661832</v>
+        <v>7.7433221843401956</v>
       </c>
       <c r="K51" s="7">
-        <v>193.91270862877562</v>
+        <v>209.20997479000357</v>
       </c>
       <c r="L51" s="7">
-        <v>621.05269881178594</v>
+        <v>662.06026214761914</v>
       </c>
       <c r="M51" s="7">
-        <v>0.32626912435552802</v>
+        <v>1.202004127650379</v>
       </c>
       <c r="N51" s="7">
-        <v>0.33441966084258984</v>
+        <v>0.54509027700863633</v>
       </c>
       <c r="O51" s="7">
-        <v>68.835902008720922</v>
+        <v>69.893473074293084</v>
       </c>
       <c r="P51" s="7">
-        <v>0.14781095043510192</v>
+        <v>0.1111612745684489</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -5135,28 +5135,28 @@
         <v>13.8</v>
       </c>
       <c r="I52" s="8">
-        <v>7.2116038121156425</v>
+        <v>9.424655034856162</v>
       </c>
       <c r="J52" s="7">
-        <v>6.6698844727138775</v>
+        <v>8.9312321685878899</v>
       </c>
       <c r="K52" s="7">
-        <v>123.97671023458793</v>
+        <v>139.27397639581588</v>
       </c>
       <c r="L52" s="7">
-        <v>703.38643502676905</v>
+        <v>744.39399836260236</v>
       </c>
       <c r="M52" s="7">
-        <v>1.1958677008877685</v>
+        <v>1.1129453862426102</v>
       </c>
       <c r="N52" s="7">
-        <v>0.26986081446664573</v>
+        <v>0.22837495358902107</v>
       </c>
       <c r="O52" s="7">
-        <v>26.156776958319544</v>
+        <v>27.214348023891702</v>
       </c>
       <c r="P52" s="7">
-        <v>0.14781095043510192</v>
+        <v>0.1111612745684489</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -5185,28 +5185,28 @@
         <v>13.7</v>
       </c>
       <c r="I53" s="8">
-        <v>7.9781558886221813</v>
+        <v>10.191207111362701</v>
       </c>
       <c r="J53" s="7">
-        <v>8.1440365364914022</v>
+        <v>10.405384232365416</v>
       </c>
       <c r="K53" s="7">
-        <v>149.87768662312558</v>
+        <v>165.17495278435354</v>
       </c>
       <c r="L53" s="7">
-        <v>798.99479971282676</v>
+        <v>840.00236304866007</v>
       </c>
       <c r="M53" s="7">
-        <v>1.1958677008877685</v>
+        <v>1.1129453862426102</v>
       </c>
       <c r="N53" s="7">
-        <v>0.26986081446664573</v>
+        <v>0.22837495358902107</v>
       </c>
       <c r="O53" s="7">
-        <v>25.822783371562103</v>
+        <v>26.880354437134262</v>
       </c>
       <c r="P53" s="7">
-        <v>0.14781095043510192</v>
+        <v>0.1111612745684489</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -5235,28 +5235,28 @@
         <v>12.8</v>
       </c>
       <c r="I54" s="8">
-        <v>11.699329287187144</v>
+        <v>13.912380509927663</v>
       </c>
       <c r="J54" s="7">
-        <v>5.8155978139515296</v>
+        <v>8.076945509825542</v>
       </c>
       <c r="K54" s="7">
-        <v>88.294061842187062</v>
+        <v>103.59132800341501</v>
       </c>
       <c r="L54" s="7">
-        <v>258.92020656598339</v>
+        <v>299.92776990181659</v>
       </c>
       <c r="M54" s="7">
-        <v>1.1958677008877685</v>
+        <v>1.1129453862426102</v>
       </c>
       <c r="N54" s="7">
-        <v>9.4600689597277132E-2</v>
+        <v>0.30527130576332362</v>
       </c>
       <c r="O54" s="7">
-        <v>35.317395033505321</v>
+        <v>36.374966099077483</v>
       </c>
       <c r="P54" s="7">
-        <v>0.14781095043510192</v>
+        <v>0.1111612745684489</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -5285,28 +5285,28 @@
         <v>12.8</v>
       </c>
       <c r="I55" s="8">
-        <v>10.217748126596508</v>
+        <v>12.430799349337027</v>
       </c>
       <c r="J55" s="7">
-        <v>5.6786633350525539</v>
+        <v>7.9400110309265672</v>
       </c>
       <c r="K55" s="7">
-        <v>101.86351431391418</v>
+        <v>117.16078047514213</v>
       </c>
       <c r="L55" s="7">
-        <v>417.77827419794471</v>
+        <v>458.78583753377796</v>
       </c>
       <c r="M55" s="7">
-        <v>1.1958677008877685</v>
+        <v>1.1129453862426102</v>
       </c>
       <c r="N55" s="7">
-        <v>0.17355699191353652</v>
+        <v>0.38422760807958301</v>
       </c>
       <c r="O55" s="7">
-        <v>25.995382589349454</v>
+        <v>27.052953654921613</v>
       </c>
       <c r="P55" s="7">
-        <v>0.14781095043510192</v>
+        <v>0.1111612745684489</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -5335,28 +5335,28 @@
         <v>12.8</v>
       </c>
       <c r="I56" s="8">
-        <v>11.004210812500132</v>
+        <v>13.217262035240651</v>
       </c>
       <c r="J56" s="7">
-        <v>6.8178595693745505</v>
+        <v>9.0792072652485629</v>
       </c>
       <c r="K56" s="7">
-        <v>94.91293774941289</v>
+        <v>110.21020391064086</v>
       </c>
       <c r="L56" s="7">
-        <v>401.04365172529958</v>
+        <v>442.05121506113278</v>
       </c>
       <c r="M56" s="7">
-        <v>1.1958677008877685</v>
+        <v>1.1129453862426102</v>
       </c>
       <c r="N56" s="7">
-        <v>0.74764398030225654</v>
+        <v>0.95831459646830297</v>
       </c>
       <c r="O56" s="7">
-        <v>27.023733056904142</v>
+        <v>28.0813041224763</v>
       </c>
       <c r="P56" s="7">
-        <v>0.14781095043510192</v>
+        <v>0.1111612745684489</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -5385,25 +5385,25 @@
         <v>12.8</v>
       </c>
       <c r="I57" s="8">
-        <v>5.8144760116901164</v>
+        <v>11.244813392087101</v>
       </c>
       <c r="J57" s="7">
-        <v>0.726779246945636</v>
+        <v>3.9864525180087136</v>
       </c>
       <c r="K57" s="7">
-        <v>93.062213215517573</v>
+        <v>102.30039507552166</v>
       </c>
       <c r="L57" s="7">
-        <v>430.5756012597551</v>
+        <v>488.14998965076222</v>
       </c>
       <c r="M57" s="7">
         <v>1.1958677008877685</v>
       </c>
       <c r="N57" s="7">
-        <v>0.18682214251352058</v>
+        <v>0.49042479395581934</v>
       </c>
       <c r="O57" s="7">
-        <v>25.878974979108186</v>
+        <v>27.773302782607004</v>
       </c>
       <c r="P57" s="7">
         <v>0.14781095043510192</v>
@@ -5435,25 +5435,25 @@
         <v>12.8</v>
       </c>
       <c r="I58" s="8">
-        <v>11.296904546568053</v>
+        <v>16.727241926965039</v>
       </c>
       <c r="J58" s="7">
-        <v>3.3419760179677507</v>
+        <v>6.6016492890308287</v>
       </c>
       <c r="K58" s="7">
-        <v>142.65716600357402</v>
+        <v>151.89534786357811</v>
       </c>
       <c r="L58" s="7">
-        <v>696.37850475751407</v>
+        <v>753.95289314852107</v>
       </c>
       <c r="M58" s="7">
         <v>1.1958677008877685</v>
       </c>
       <c r="N58" s="7">
-        <v>0.6822698995324995</v>
+        <v>0.9858725509747982</v>
       </c>
       <c r="O58" s="7">
-        <v>43.834067823933779</v>
+        <v>45.728395627432597</v>
       </c>
       <c r="P58" s="7">
         <v>0.14781095043510192</v>
@@ -5485,25 +5485,25 @@
         <v>12.8</v>
       </c>
       <c r="I59" s="8">
-        <v>11.448648688834274</v>
+        <v>16.87898606923126</v>
       </c>
       <c r="J59" s="7">
-        <v>1.7531554974322656</v>
+        <v>5.0128287684953436</v>
       </c>
       <c r="K59" s="7">
-        <v>121.6881477533131</v>
+        <v>130.92632961331719</v>
       </c>
       <c r="L59" s="7">
-        <v>596.53535709245364</v>
+        <v>654.10974548346076</v>
       </c>
       <c r="M59" s="7">
         <v>1.1958677008877685</v>
       </c>
       <c r="N59" s="7">
-        <v>0.81889151824530082</v>
+        <v>1.1224941696875994</v>
       </c>
       <c r="O59" s="7">
-        <v>37.594808906639805</v>
+        <v>39.489136710138624</v>
       </c>
       <c r="P59" s="7">
         <v>0.14781095043510192</v>

--- a/OroLoma_December_Water.xlsx
+++ b/OroLoma_December_Water.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19105F9-5DBA-4ABF-880C-9FC84F25C857}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BEBB6C-9EB4-4648-B958-34ED1AC0789E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C8EBDA33-F5B2-4958-9BB6-A971455D8F1E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C8EBDA33-F5B2-4958-9BB6-A971455D8F1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Dec Water Samples" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -66,19 +66,10 @@
     <t>TCEP</t>
   </si>
   <si>
-    <t>∑TCPP</t>
-  </si>
-  <si>
     <t>TPhP</t>
   </si>
   <si>
-    <t>EHDPP</t>
-  </si>
-  <si>
     <t>TPPO</t>
-  </si>
-  <si>
-    <t>B4tBPPP</t>
   </si>
   <si>
     <t>Both</t>
@@ -100,6 +91,9 @@
   </si>
   <si>
     <t>MeasRound</t>
+  </si>
+  <si>
+    <t>TCiPP</t>
   </si>
 </sst>
 </file>
@@ -2166,13 +2160,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>354330</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>41910</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
@@ -2202,13 +2196,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>449580</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>51435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>140970</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>127635</xdr:rowOff>
@@ -2537,10 +2531,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFB7859-47DC-4F2F-8D85-F13269568904}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2554,14 +2548,12 @@
     <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2594,24 +2586,18 @@
         <v>9</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5">
         <v>43804.402777777781</v>
@@ -2620,7 +2606,7 @@
         <v>43804.402777777781</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E2" s="7">
         <v>0</v>
@@ -2650,18 +2636,12 @@
         <v>11.191997304467945</v>
       </c>
       <c r="N2" s="7">
-        <v>0.94786627086673481</v>
-      </c>
-      <c r="O2" s="7">
         <v>81.635531981771734</v>
       </c>
-      <c r="P2" s="7">
-        <v>0.26043869174730916</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5">
         <v>43804.409722222219</v>
@@ -2670,7 +2650,7 @@
         <v>43804.409722222219</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" s="7">
         <v>0</v>
@@ -2700,18 +2680,12 @@
         <v>12.052041030128347</v>
       </c>
       <c r="N3" s="7">
-        <v>0.46786504647306115</v>
-      </c>
-      <c r="O3" s="7">
         <v>99.071176978415679</v>
       </c>
-      <c r="P3" s="7">
-        <v>0.21391517518971492</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5">
         <v>43804.416666666664</v>
@@ -2720,7 +2694,7 @@
         <v>43804.416666666664</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
@@ -2750,18 +2724,12 @@
         <v>11.24752607803199</v>
       </c>
       <c r="N4" s="7">
-        <v>0.5906312932722747</v>
-      </c>
-      <c r="O4" s="7">
         <v>94.370727877418204</v>
       </c>
-      <c r="P4" s="7">
-        <v>0.25668701583267234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5">
         <v>43804.447916666664</v>
@@ -2770,7 +2738,7 @@
         <v>43804.447916666664</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5" s="7">
         <v>1.7525999999999999</v>
@@ -2800,18 +2768,12 @@
         <v>1.1129453862426102</v>
       </c>
       <c r="N5" s="7">
-        <v>0.34493802712391614</v>
-      </c>
-      <c r="O5" s="7">
         <v>78.405732466359765</v>
       </c>
-      <c r="P5" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5">
         <v>43804.458333333336</v>
@@ -2820,7 +2782,7 @@
         <v>43804.458333333336</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E6" s="7">
         <v>18.0654</v>
@@ -2850,18 +2812,12 @@
         <v>1.1129453862426102</v>
       </c>
       <c r="N6" s="7">
-        <v>1.0191734112959214</v>
-      </c>
-      <c r="O6" s="7">
         <v>44.106409809576235</v>
       </c>
-      <c r="P6" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="5">
         <v>43804.46875</v>
@@ -2870,7 +2826,7 @@
         <v>43804.46875</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E7" s="7">
         <v>18.0654</v>
@@ -2900,18 +2856,12 @@
         <v>1.1129453862426102</v>
       </c>
       <c r="N7" s="7">
-        <v>1.4403310968233027</v>
-      </c>
-      <c r="O7" s="7">
         <v>43.267276686387056</v>
       </c>
-      <c r="P7" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5">
         <v>43804.475694444445</v>
@@ -2920,7 +2870,7 @@
         <v>43804.475694444445</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E8" s="7">
         <v>32.608199999999997</v>
@@ -2950,18 +2900,12 @@
         <v>4.9126872817168001</v>
       </c>
       <c r="N8" s="7">
-        <v>0.65875072484144814</v>
-      </c>
-      <c r="O8" s="7">
         <v>54.617371552741801</v>
       </c>
-      <c r="P8" s="7">
-        <v>0.18258265656302264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" s="5">
         <v>43804.482638888891</v>
@@ -2970,7 +2914,7 @@
         <v>43804.482638888891</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E9" s="7">
         <v>32.608199999999997</v>
@@ -3000,18 +2944,12 @@
         <v>1.1129453862426102</v>
       </c>
       <c r="N9" s="7">
-        <v>1.9972143502163708</v>
-      </c>
-      <c r="O9" s="7">
         <v>33.292514980563453</v>
       </c>
-      <c r="P9" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" s="5">
         <v>43804.5625</v>
@@ -3020,7 +2958,7 @@
         <v>43804.5625</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E10" s="7">
         <v>45.5</v>
@@ -3050,18 +2988,12 @@
         <v>1.1958677008877685</v>
       </c>
       <c r="N10" s="7">
-        <v>0.26986081446664573</v>
-      </c>
-      <c r="O10" s="7">
         <v>28.52698899658018</v>
       </c>
-      <c r="P10" s="7">
-        <v>0.14781095043510192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5">
         <v>43804.565972222219</v>
@@ -3070,7 +3002,7 @@
         <v>43804.565972222219</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E11" s="7">
         <v>45.5</v>
@@ -3100,18 +3032,12 @@
         <v>1.1958677008877685</v>
       </c>
       <c r="N11" s="7">
-        <v>0.26986081446664573</v>
-      </c>
-      <c r="O11" s="7">
         <v>18.554943543784102</v>
       </c>
-      <c r="P11" s="7">
-        <v>0.14781095043510192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B12" s="5">
         <v>43804.517361111109</v>
@@ -3120,7 +3046,7 @@
         <v>43804.517361111109</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E12" s="7">
         <v>2.3368000000000002</v>
@@ -3150,18 +3076,12 @@
         <v>1.4030105178255761</v>
       </c>
       <c r="N12" s="7">
-        <v>1.1144970717575124</v>
-      </c>
-      <c r="O12" s="7">
         <v>101.26694648742019</v>
       </c>
-      <c r="P12" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" s="5">
         <v>43804.517361111109</v>
@@ -3170,7 +3090,7 @@
         <v>43804.517361111109</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E13" s="7">
         <v>2.3368000000000002</v>
@@ -3200,18 +3120,12 @@
         <v>1.1129453862426102</v>
       </c>
       <c r="N13" s="7">
-        <v>1.0880007864042378</v>
-      </c>
-      <c r="O13" s="7">
         <v>309.99140579850706</v>
       </c>
-      <c r="P13" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="5">
         <v>43804.496527777781</v>
@@ -3220,7 +3134,7 @@
         <v>43804.496527777781</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E14" s="7">
         <v>18.446400000000001</v>
@@ -3250,18 +3164,12 @@
         <v>1.1129453862426102</v>
       </c>
       <c r="N14" s="7">
-        <v>0.45753471792988221</v>
-      </c>
-      <c r="O14" s="7">
         <v>47.352321215629701</v>
       </c>
-      <c r="P14" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" s="5">
         <v>43804.503472222219</v>
@@ -3270,7 +3178,7 @@
         <v>43804.503472222219</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E15" s="7">
         <v>18.446400000000001</v>
@@ -3300,18 +3208,12 @@
         <v>1.1129453862426102</v>
       </c>
       <c r="N15" s="7">
-        <v>0.92314915502641692</v>
-      </c>
-      <c r="O15" s="7">
         <v>55.802693255688894</v>
       </c>
-      <c r="P15" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16" s="5">
         <v>43804.493055555555</v>
@@ -3320,7 +3222,7 @@
         <v>43804.493055555555</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E16" s="7">
         <v>32.455799999999996</v>
@@ -3350,18 +3252,12 @@
         <v>1.1129453862426102</v>
       </c>
       <c r="N16" s="7">
-        <v>0.60972172860796425</v>
-      </c>
-      <c r="O16" s="7">
         <v>43.86898656439125</v>
       </c>
-      <c r="P16" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5">
         <v>43804.569444444445</v>
@@ -3370,7 +3266,7 @@
         <v>43804.569444444445</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E17" s="7">
         <v>45.5</v>
@@ -3400,18 +3296,12 @@
         <v>1.1958677008877685</v>
       </c>
       <c r="N17" s="7">
-        <v>0.95272003179693299</v>
-      </c>
-      <c r="O17" s="7">
         <v>1.3860603517993531</v>
       </c>
-      <c r="P17" s="7">
-        <v>0.14781095043510192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B18" s="9">
         <v>43804.572916666664</v>
@@ -3420,7 +3310,7 @@
         <v>43804.572916666664</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E18" s="11">
         <v>45.5</v>
@@ -3450,18 +3340,12 @@
         <v>1.1958677008877685</v>
       </c>
       <c r="N18" s="11">
-        <v>0.76053442565036866</v>
-      </c>
-      <c r="O18" s="11">
         <v>24.323300293617393</v>
       </c>
-      <c r="P18" s="11">
-        <v>0.26024543268305611</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B19" s="5">
         <v>43811.34375</v>
@@ -3470,7 +3354,7 @@
         <v>43811.34375</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E19" s="7">
         <v>0</v>
@@ -3500,18 +3384,12 @@
         <v>16.741144069633858</v>
       </c>
       <c r="N19" s="7">
-        <v>0.26986081446664573</v>
-      </c>
-      <c r="O19" s="7">
         <v>71.63139808623184</v>
       </c>
-      <c r="P19" s="7">
-        <v>0.35112535733061506</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20" s="5">
         <v>43811.34375</v>
@@ -3520,7 +3398,7 @@
         <v>43811.34375</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E20" s="7">
         <v>0</v>
@@ -3550,18 +3428,12 @@
         <v>15.036910983423409</v>
       </c>
       <c r="N20" s="7">
-        <v>0.49610634749697063</v>
-      </c>
-      <c r="O20" s="7">
         <v>53.581465645879895</v>
       </c>
-      <c r="P20" s="7">
-        <v>0.32408448165370696</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B21" s="5">
         <v>43811.34375</v>
@@ -3570,7 +3442,7 @@
         <v>43811.34375</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E21" s="7">
         <v>0</v>
@@ -3600,18 +3472,12 @@
         <v>13.030840198435849</v>
       </c>
       <c r="N21" s="7">
-        <v>0.37840825703300907</v>
-      </c>
-      <c r="O21" s="7">
         <v>70.714629921946326</v>
       </c>
-      <c r="P21" s="7">
-        <v>0.30482235840497873</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B22" s="5">
         <v>43811.375</v>
@@ -3620,7 +3486,7 @@
         <v>43811.375</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E22" s="7">
         <v>1.5494000000000001</v>
@@ -3650,18 +3516,12 @@
         <v>1.1129453862426102</v>
       </c>
       <c r="N22" s="7">
-        <v>0.22837495358902107</v>
-      </c>
-      <c r="O22" s="7">
         <v>61.389470236099733</v>
       </c>
-      <c r="P22" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B23" s="5">
         <v>43811.381944444445</v>
@@ -3670,7 +3530,7 @@
         <v>43811.381944444445</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E23" s="7">
         <v>1.5494000000000001</v>
@@ -3700,18 +3560,12 @@
         <v>0.95153902477468555</v>
       </c>
       <c r="N23" s="7">
-        <v>1.0306420400154956</v>
-      </c>
-      <c r="O23" s="7">
         <v>65.633390795577242</v>
       </c>
-      <c r="P23" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B24" s="5">
         <v>43811.388888888891</v>
@@ -3720,7 +3574,7 @@
         <v>43811.388888888891</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E24" s="7">
         <v>17.913</v>
@@ -3750,18 +3604,12 @@
         <v>1.1129453862426102</v>
       </c>
       <c r="N24" s="7">
-        <v>0.62935184234219055</v>
-      </c>
-      <c r="O24" s="7">
         <v>62.713166498193253</v>
       </c>
-      <c r="P24" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B25" s="5">
         <v>43811.395833333336</v>
@@ -3770,7 +3618,7 @@
         <v>43811.395833333336</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E25" s="7">
         <v>17.913</v>
@@ -3800,18 +3648,12 @@
         <v>1.1129453862426102</v>
       </c>
       <c r="N25" s="7">
-        <v>0.6479934446840897</v>
-      </c>
-      <c r="O25" s="7">
         <v>29.093661874004884</v>
       </c>
-      <c r="P25" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B26" s="5">
         <v>43811.423611111109</v>
@@ -3820,7 +3662,7 @@
         <v>43811.423611111109</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E26" s="7">
         <v>32.455799999999996</v>
@@ -3850,18 +3692,12 @@
         <v>1.1129453862426102</v>
       </c>
       <c r="N26" s="7">
-        <v>1.7018353263399619</v>
-      </c>
-      <c r="O26" s="7">
         <v>1.7360210172535926</v>
       </c>
-      <c r="P26" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B27" s="5">
         <v>43811.430555555555</v>
@@ -3870,7 +3706,7 @@
         <v>43811.430555555555</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E27" s="7">
         <v>32.455799999999996</v>
@@ -3900,18 +3736,12 @@
         <v>1.1129453862426102</v>
       </c>
       <c r="N27" s="7">
-        <v>1.2264992551861824</v>
-      </c>
-      <c r="O27" s="7">
         <v>22.589062984622043</v>
       </c>
-      <c r="P27" s="7">
-        <v>0.29932660332353611</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B28" s="5">
         <v>43811.5625</v>
@@ -3920,7 +3750,7 @@
         <v>43811.5625</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E28" s="7">
         <v>45.5</v>
@@ -3950,18 +3780,12 @@
         <v>1.1958677008877685</v>
       </c>
       <c r="N28" s="7">
-        <v>0.26986081446664573</v>
-      </c>
-      <c r="O28" s="7">
         <v>27.757209696531916</v>
       </c>
-      <c r="P28" s="7">
-        <v>0.14781095043510192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B29" s="5">
         <v>43811.5625</v>
@@ -3970,7 +3794,7 @@
         <v>43811.5625</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E29" s="7">
         <v>45.5</v>
@@ -4000,18 +3824,12 @@
         <v>1.1958677008877685</v>
       </c>
       <c r="N29" s="7">
-        <v>1.0171908557283476</v>
-      </c>
-      <c r="O29" s="7">
         <v>24.648479525848451</v>
       </c>
-      <c r="P29" s="7">
-        <v>0.14781095043510192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B30" s="5">
         <v>43811.368055555555</v>
@@ -4020,7 +3838,7 @@
         <v>43811.368055555555</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E30" s="7">
         <v>2.4384000000000001</v>
@@ -4050,18 +3868,12 @@
         <v>1.384178682711197</v>
       </c>
       <c r="N30" s="7">
-        <v>1.1618988969074675</v>
-      </c>
-      <c r="O30" s="7">
         <v>94.584153279529801</v>
       </c>
-      <c r="P30" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B31" s="5">
         <v>43811.409722222219</v>
@@ -4070,7 +3882,7 @@
         <v>43811.409722222219</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E31" s="7">
         <v>18.420999999999999</v>
@@ -4100,18 +3912,12 @@
         <v>1.1129453862426102</v>
       </c>
       <c r="N31" s="7">
-        <v>1.5581360363600265</v>
-      </c>
-      <c r="O31" s="7">
         <v>39.254710571764953</v>
       </c>
-      <c r="P31" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B32" s="5">
         <v>43811.416666666664</v>
@@ -4120,7 +3926,7 @@
         <v>43811.416666666664</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E32" s="7">
         <v>18.420999999999999</v>
@@ -4150,18 +3956,12 @@
         <v>1.1129453862426102</v>
       </c>
       <c r="N32" s="7">
-        <v>0.87028495894581981</v>
-      </c>
-      <c r="O32" s="7">
         <v>71.143845070696074</v>
       </c>
-      <c r="P32" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B33" s="5">
         <v>43811.4375</v>
@@ -4170,7 +3970,7 @@
         <v>43811.4375</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E33" s="7">
         <v>32.455799999999996</v>
@@ -4200,18 +4000,12 @@
         <v>1.1129453862426102</v>
       </c>
       <c r="N33" s="7">
-        <v>0.8497112228219964</v>
-      </c>
-      <c r="O33" s="7">
         <v>30.096524513757089</v>
       </c>
-      <c r="P33" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B34" s="5">
         <v>43811.444444444445</v>
@@ -4220,7 +4014,7 @@
         <v>43811.444444444445</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E34" s="7">
         <v>32.455799999999996</v>
@@ -4250,18 +4044,12 @@
         <v>1.1129453862426102</v>
       </c>
       <c r="N34" s="7">
-        <v>1.3265288039580703</v>
-      </c>
-      <c r="O34" s="7">
         <v>24.708052500183694</v>
       </c>
-      <c r="P34" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B35" s="15">
         <v>43811.565972222219</v>
@@ -4270,7 +4058,7 @@
         <v>43811.565972222219</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E35" s="17">
         <v>45.5</v>
@@ -4300,18 +4088,12 @@
         <v>1.1958677008877685</v>
       </c>
       <c r="N35" s="17">
-        <v>0.26986081446664573</v>
-      </c>
-      <c r="O35" s="17">
         <v>23.140153627935756</v>
       </c>
-      <c r="P35" s="17">
-        <v>0.14781095043510192</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B36" s="9">
         <v>43811.565972222219</v>
@@ -4320,7 +4102,7 @@
         <v>43811.565972222219</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E36" s="11">
         <v>45.5</v>
@@ -4350,18 +4132,12 @@
         <v>1.1958677008877685</v>
       </c>
       <c r="N36" s="11">
-        <v>0.74857922118171349</v>
-      </c>
-      <c r="O36" s="11">
         <v>30.283140419188012</v>
       </c>
-      <c r="P36" s="11">
-        <v>0.14781095043510192</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B37" s="5">
         <v>43816.53125</v>
@@ -4370,7 +4146,7 @@
         <v>43816.53125</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E37" s="7">
         <v>0</v>
@@ -4400,18 +4176,12 @@
         <v>8.6987154318629667</v>
       </c>
       <c r="N37" s="7">
-        <v>0.5182311731846172</v>
-      </c>
-      <c r="O37" s="7">
         <v>70.974058951751957</v>
       </c>
-      <c r="P37" s="7">
-        <v>0.14781095043510192</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B38" s="5">
         <v>43816.534722222219</v>
@@ -4420,7 +4190,7 @@
         <v>43816.534722222219</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E38" s="7">
         <v>0</v>
@@ -4450,18 +4220,12 @@
         <v>18.737802873218573</v>
       </c>
       <c r="N38" s="7">
-        <v>1.7264947986467685</v>
-      </c>
-      <c r="O38" s="7">
         <v>138.49707794860859</v>
       </c>
-      <c r="P38" s="7">
-        <v>0.41018436611427517</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B39" s="5">
         <v>43816.538194444445</v>
@@ -4470,7 +4234,7 @@
         <v>43816.538194444445</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E39" s="7">
         <v>0</v>
@@ -4500,18 +4264,12 @@
         <v>21.323914170586995</v>
       </c>
       <c r="N39" s="7">
-        <v>2.1603590099303913</v>
-      </c>
-      <c r="O39" s="7">
         <v>181.40200971238201</v>
       </c>
-      <c r="P39" s="7">
-        <v>0.46524111806060459</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B40" s="5">
         <v>43816.548611111109</v>
@@ -4520,7 +4278,7 @@
         <v>43816.548611111109</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E40" s="7">
         <v>1.5494000000000001</v>
@@ -4550,18 +4308,12 @@
         <v>1.1129453862426102</v>
       </c>
       <c r="N40" s="7">
-        <v>0.31717815207031619</v>
-      </c>
-      <c r="O40" s="7">
         <v>101.38802571475668</v>
       </c>
-      <c r="P40" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B41" s="5">
         <v>43816.5625</v>
@@ -4570,7 +4322,7 @@
         <v>43816.5625</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E41" s="7">
         <v>1.5494000000000001</v>
@@ -4600,18 +4352,12 @@
         <v>1.1129453862426102</v>
       </c>
       <c r="N41" s="7">
-        <v>0.31302643973095068</v>
-      </c>
-      <c r="O41" s="7">
         <v>48.456680291210809</v>
       </c>
-      <c r="P41" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B42" s="5">
         <v>43816.569444444445</v>
@@ -4620,7 +4366,7 @@
         <v>43816.569444444445</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E42" s="7">
         <v>7.75</v>
@@ -4650,18 +4396,12 @@
         <v>1.1129453862426102</v>
       </c>
       <c r="N42" s="7">
-        <v>2.9505394140239751</v>
-      </c>
-      <c r="O42" s="7">
         <v>36.403490333986277</v>
       </c>
-      <c r="P42" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B43" s="5">
         <v>43816.572916666664</v>
@@ -4670,7 +4410,7 @@
         <v>43816.572916666664</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E43" s="7">
         <v>7.75</v>
@@ -4700,18 +4440,12 @@
         <v>1.1129453862426102</v>
       </c>
       <c r="N43" s="7">
-        <v>0.34353324885364855</v>
-      </c>
-      <c r="O43" s="7">
         <v>41.120461861096913</v>
       </c>
-      <c r="P43" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B44" s="5">
         <v>43816.604166666664</v>
@@ -4720,7 +4454,7 @@
         <v>43816.604166666664</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E44" s="7">
         <v>32.455799999999996</v>
@@ -4750,18 +4484,12 @@
         <v>1.1129453862426102</v>
       </c>
       <c r="N44" s="7">
-        <v>1.9868406350298193</v>
-      </c>
-      <c r="O44" s="7">
         <v>18.338614657743936</v>
       </c>
-      <c r="P44" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B45" s="5">
         <v>43816.611111111109</v>
@@ -4770,7 +4498,7 @@
         <v>43816.611111111109</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E45" s="7">
         <v>32.455799999999996</v>
@@ -4800,18 +4528,12 @@
         <v>1.1129453862426102</v>
       </c>
       <c r="N45" s="7">
-        <v>0.98765087886024894</v>
-      </c>
-      <c r="O45" s="7">
         <v>26.771079997606932</v>
       </c>
-      <c r="P45" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B46" s="5">
         <v>43816.666666666664</v>
@@ -4820,7 +4542,7 @@
         <v>43816.666666666664</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E46" s="7">
         <v>45.5</v>
@@ -4850,18 +4572,12 @@
         <v>1.6123523113437555</v>
       </c>
       <c r="N46" s="7">
-        <v>2.7457265968969549</v>
-      </c>
-      <c r="O46" s="7">
         <v>8.3108290601064496</v>
       </c>
-      <c r="P46" s="7">
-        <v>3.5746919744549128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B47" s="5">
         <v>43816.668055555558</v>
@@ -4870,7 +4586,7 @@
         <v>43816.668055555558</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E47" s="7">
         <v>45.5</v>
@@ -4900,18 +4616,12 @@
         <v>1.9789145009144939</v>
       </c>
       <c r="N47" s="7">
-        <v>1.9492512185203057</v>
-      </c>
-      <c r="O47" s="7">
         <v>41.423520118816484</v>
       </c>
-      <c r="P47" s="7">
-        <v>2.1314596408245681</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B48" s="5">
         <v>43816.670138888891</v>
@@ -4920,7 +4630,7 @@
         <v>43816.670138888891</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E48" s="7">
         <v>45.5</v>
@@ -4950,18 +4660,12 @@
         <v>1.1958677008877685</v>
       </c>
       <c r="N48" s="7">
-        <v>0.53160794260210276</v>
-      </c>
-      <c r="O48" s="7">
         <v>24.088686541327579</v>
       </c>
-      <c r="P48" s="7">
-        <v>0.14781095043510192</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B49" s="5">
         <v>43816.461805555555</v>
@@ -4970,7 +4674,7 @@
         <v>43816.461805555555</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E49" s="7">
         <v>2.4384000000000001</v>
@@ -5000,18 +4704,12 @@
         <v>1.1129453862426102</v>
       </c>
       <c r="N49" s="7">
-        <v>0.32648209342218026</v>
-      </c>
-      <c r="O49" s="7">
         <v>48.162631548628298</v>
       </c>
-      <c r="P49" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B50" s="5">
         <v>43816.465277777781</v>
@@ -5020,7 +4718,7 @@
         <v>43816.465277777781</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E50" s="7">
         <v>2.4384000000000001</v>
@@ -5050,18 +4748,12 @@
         <v>1.1129453862426102</v>
       </c>
       <c r="N50" s="7">
-        <v>0.65965016166968116</v>
-      </c>
-      <c r="O50" s="7">
         <v>75.034526591695723</v>
       </c>
-      <c r="P50" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B51" s="5">
         <v>43816.46875</v>
@@ -5070,7 +4762,7 @@
         <v>43816.46875</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E51" s="7">
         <v>2.4384000000000001</v>
@@ -5100,18 +4792,12 @@
         <v>1.202004127650379</v>
       </c>
       <c r="N51" s="7">
-        <v>0.54509027700863633</v>
-      </c>
-      <c r="O51" s="7">
         <v>69.893473074293084</v>
       </c>
-      <c r="P51" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B52" s="5">
         <v>43816.472222222219</v>
@@ -5120,7 +4806,7 @@
         <v>43816.472222222219</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E52" s="7">
         <v>7.75</v>
@@ -5150,18 +4836,12 @@
         <v>1.1129453862426102</v>
       </c>
       <c r="N52" s="7">
-        <v>0.22837495358902107</v>
-      </c>
-      <c r="O52" s="7">
         <v>27.214348023891702</v>
       </c>
-      <c r="P52" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B53" s="5">
         <v>43816.475694444445</v>
@@ -5170,7 +4850,7 @@
         <v>43816.475694444445</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E53" s="7">
         <v>7.75</v>
@@ -5200,18 +4880,12 @@
         <v>1.1129453862426102</v>
       </c>
       <c r="N53" s="7">
-        <v>0.22837495358902107</v>
-      </c>
-      <c r="O53" s="7">
         <v>26.880354437134262</v>
       </c>
-      <c r="P53" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B54" s="5">
         <v>43816.597222222219</v>
@@ -5220,7 +4894,7 @@
         <v>43816.597222222219</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E54" s="7">
         <v>18.420999999999999</v>
@@ -5250,18 +4924,12 @@
         <v>1.1129453862426102</v>
       </c>
       <c r="N54" s="7">
-        <v>0.30527130576332362</v>
-      </c>
-      <c r="O54" s="7">
         <v>36.374966099077483</v>
       </c>
-      <c r="P54" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B55" s="5">
         <v>43816.618055555555</v>
@@ -5270,7 +4938,7 @@
         <v>43816.618055555555</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E55" s="7">
         <v>32.455799999999996</v>
@@ -5300,18 +4968,12 @@
         <v>1.1129453862426102</v>
       </c>
       <c r="N55" s="7">
-        <v>0.38422760807958301</v>
-      </c>
-      <c r="O55" s="7">
         <v>27.052953654921613</v>
       </c>
-      <c r="P55" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B56" s="5">
         <v>43816.621527777781</v>
@@ -5320,7 +4982,7 @@
         <v>43816.621527777781</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E56" s="7">
         <v>32.455799999999996</v>
@@ -5350,18 +5012,12 @@
         <v>1.1129453862426102</v>
       </c>
       <c r="N56" s="7">
-        <v>0.95831459646830297</v>
-      </c>
-      <c r="O56" s="7">
         <v>28.0813041224763</v>
       </c>
-      <c r="P56" s="7">
-        <v>0.1111612745684489</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B57" s="5">
         <v>43816.671527777777</v>
@@ -5370,7 +5026,7 @@
         <v>43816.671527777777</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E57" s="7">
         <v>45.5</v>
@@ -5400,18 +5056,12 @@
         <v>1.1958677008877685</v>
       </c>
       <c r="N57" s="7">
-        <v>0.49042479395581934</v>
-      </c>
-      <c r="O57" s="7">
         <v>27.773302782607004</v>
       </c>
-      <c r="P57" s="7">
-        <v>0.14781095043510192</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B58" s="5">
         <v>43816.67291666667</v>
@@ -5420,7 +5070,7 @@
         <v>43816.67291666667</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E58" s="7">
         <v>45.5</v>
@@ -5450,18 +5100,12 @@
         <v>1.1958677008877685</v>
       </c>
       <c r="N58" s="7">
-        <v>0.9858725509747982</v>
-      </c>
-      <c r="O58" s="7">
         <v>45.728395627432597</v>
       </c>
-      <c r="P58" s="7">
-        <v>0.14781095043510192</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B59">
         <v>43816.674305555556</v>
@@ -5470,7 +5114,7 @@
         <v>43816.674305555556</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E59">
         <v>45.5</v>
@@ -5500,24 +5144,18 @@
         <v>1.1958677008877685</v>
       </c>
       <c r="N59" s="7">
-        <v>1.1224941696875994</v>
-      </c>
-      <c r="O59" s="7">
         <v>39.489136710138624</v>
       </c>
-      <c r="P59" s="7">
-        <v>0.14781095043510192</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N1:P1">
+  <conditionalFormatting sqref="N1">
     <cfRule type="expression" dxfId="1" priority="4">
-      <formula>BX1&gt;#REF!</formula>
+      <formula>BW1&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:K1 M1">
     <cfRule type="expression" dxfId="0" priority="6">
-      <formula>BR1&gt;#REF!</formula>
+      <formula>BP1&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OroLoma_December_Water.xlsx
+++ b/OroLoma_December_Water.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BEBB6C-9EB4-4648-B958-34ED1AC0789E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B54194-DA7D-4506-AF1D-2FB2B41C2E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C8EBDA33-F5B2-4958-9BB6-A971455D8F1E}"/>
   </bookViews>
@@ -2537,21 +2537,21 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>81.635531981771734</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>99.071176978415679</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>94.370727877418204</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>78.405732466359765</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>44.106409809576235</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>43.267276686387056</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>54.617371552741801</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>33.292514980563453</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>28.52698899658018</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>18.554943543784102</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>101.26694648742019</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>309.99140579850706</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>47.352321215629701</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>55.802693255688894</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>43.86898656439125</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>1.3860603517993531</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>24.323300293617393</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>71.63139808623184</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>53.581465645879895</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>70.714629921946326</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>61.389470236099733</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>65.633390795577242</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>62.713166498193253</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>29.093661874004884</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>1.7360210172535926</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>22.589062984622043</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>27.757209696531916</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>24.648479525848451</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>94.584153279529801</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>39.254710571764953</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>71.143845070696074</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>30.096524513757089</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>24.708052500183694</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>16</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>23.140153627935756</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>30.283140419188012</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>70.974058951751957</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>138.49707794860859</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>181.40200971238201</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>101.38802571475668</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>48.456680291210809</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>36.403490333986277</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>41.120461861096913</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>18.338614657743936</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>26.771079997606932</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>8.3108290601064496</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>41.423520118816484</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>24.088686541327579</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>48.162631548628298</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>75.034526591695723</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>69.893473074293084</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>27.214348023891702</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>26.880354437134262</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>36.374966099077483</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>27.052953654921613</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>28.0813041224763</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>27.773302782607004</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>45.728395627432597</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>17</v>
       </c>
